--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr7.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_attr7.xlsx
@@ -34,16 +34,22 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>insulin</t>
+    <t>admission_source_id</t>
+  </si>
+  <si>
+    <t>diabetesmed</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
   <si>
     <t>admission_type_id</t>
   </si>
   <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>max_glu_serum</t>
@@ -52,22 +58,16 @@
     <t>a1cresult</t>
   </si>
   <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>diag_1</t>
   </si>
   <si>
-    <t>race</t>
+    <t>change</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
-    <t>admission_source_id</t>
-  </si>
-  <si>
-    <t>diabetesmed</t>
-  </si>
-  <si>
-    <t>change</t>
+    <t>insulin</t>
   </si>
   <si>
     <t>number_emergency</t>
@@ -82,10 +82,10 @@
     <t>time_in_hospital</t>
   </si>
   <si>
-    <t>number_diagnoses</t>
+    <t>num_medications</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>number_diagnoses</t>
   </si>
   <si>
     <t>num_lab_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.328049461764409</v>
+        <v>1.305318629005046</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.321637749665881</v>
+        <v>1.297237615862483</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -532,7 +532,7 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1.291573240268463</v>
+        <v>1.257744371466159</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.284097919584051</v>
+        <v>1.241409024653609</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.254325848148452</v>
+        <v>1.195228609334394</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>1.236693884801685</v>
+        <v>1.185325684204344</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.23415681161295</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.231230883981573</v>
+        <v>1.170038204112555</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.230984466964687</v>
+        <v>1.164824007969451</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.229169833527661</v>
+        <v>1.164667046888427</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.224744871391589</v>
+        <v>1.163613986228807</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.224744871391589</v>
+        <v>1.161676980219609</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>1.224744871391589</v>
+        <v>1.161394510621746</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,13 +713,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>1.223110788113652</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1.213083635350224</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>1.209310070825948</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.208473008340679</v>
+        <v>1.145881092548817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.189516485580943</v>
+        <v>1.13286166967929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.132132211236993</v>
+        <v>1.097274029906733</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -821,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E21">
-        <v>1.033363951432517</v>
+        <v>0.9825372751600916</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>1.030371978094227</v>
+        <v>0.9787096827705548</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>1.028577625379733</v>
+        <v>0.9767654022322548</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>1.026555709604278</v>
+        <v>0.9744180604332567</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -889,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="E25">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -906,7 +906,7 @@
         <v>29</v>
       </c>
       <c r="E26">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -923,7 +923,7 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -957,7 +957,7 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -974,7 +974,7 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -991,7 +991,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>1.019263326003788</v>
+        <v>0.9656419660730233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9921087006042018</v>
+        <v>0.9351842687032762</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.7736873361162648</v>
+        <v>0.7482766914302986</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.7284496226045772</v>
+        <v>0.7054756215026584</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1070,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.6805570473787205</v>
+        <v>0.7017901134212993</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.650507627288238</v>
+        <v>0.6929957872124656</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>0.6378334207463154</v>
+        <v>0.6783195436628058</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6367673333454853</v>
+        <v>0.6514937824584971</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,7 +1135,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.6025170702340072</v>
+        <v>0.5910963876509053</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5972199867016399</v>
+        <v>0.5854056068384607</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1178,7 +1178,7 @@
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5728436161261391</v>
+        <v>0.5724780279075999</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>0.5723277514834575</v>
+        <v>0.5643650036817136</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5709862748134371</v>
+        <v>0.5621021401478702</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5632069407670823</v>
+        <v>0.5406813863253953</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.5615798258720182</v>
+        <v>0.5281605438566673</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.5594386259701686</v>
+        <v>0.5139179947113895</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.5559748026850293</v>
+        <v>0.5082035660714279</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,7 +1288,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1297,7 +1297,7 @@
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.5261042808091513</v>
+        <v>0.4765566357802891</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.5214375825245642</v>
+        <v>0.4600350749332658</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.5052017004820299</v>
+        <v>0.4596927432687729</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4971509739597127</v>
+        <v>0.4579800898640294</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4943270365579971</v>
+        <v>0.4566794824957875</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1382,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4899282106531253</v>
+        <v>0.4382643139356682</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4819517884552079</v>
+        <v>0.4345534766262854</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4613878930778179</v>
+        <v>0.425896277418704</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4316172335454601</v>
+        <v>0.4220635637221748</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.429197537639476</v>
+        <v>0.4215285337632623</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4255908234212856</v>
+        <v>0.4135149459028735</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,7 +1475,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>19</v>
@@ -1484,7 +1484,7 @@
         <v>27</v>
       </c>
       <c r="E60">
-        <v>0.4138084800894973</v>
+        <v>0.3982755550137605</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.4120678083936822</v>
+        <v>0.3921310621027631</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
       </c>
       <c r="E62">
-        <v>0.4097283495435644</v>
+        <v>0.3813850356982369</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
         <v>27</v>
       </c>
       <c r="E63">
-        <v>0.4074654550542657</v>
+        <v>0.3751358871534182</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3876215705163066</v>
+        <v>0.3734080224074693</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3765561541529654</v>
+        <v>0.3716724599123609</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.372496157743775</v>
+        <v>0.3648990120699183</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3708792430734114</v>
+        <v>0.3641446846397066</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>0.3551310574682719</v>
+        <v>0.3618556213000164</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>0.3452463561569166</v>
+        <v>0.3591209370788638</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E70">
-        <v>0.3433261220701798</v>
+        <v>0.3578689361185132</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3404121766365213</v>
+        <v>0.3565500613665715</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,7 +1679,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -1688,7 +1688,7 @@
         <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3396253212949439</v>
+        <v>0.3526470268992677</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E73">
-        <v>0.3350282508781416</v>
+        <v>0.3519754228457675</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>27</v>
       </c>
       <c r="E74">
-        <v>0.3338793342452713</v>
+        <v>0.3519572046057217</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3327636240071712</v>
+        <v>0.3514675116774037</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.3265986323710904</v>
+        <v>0.3455191474262516</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.325016570105336</v>
+        <v>0.3388209584498051</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.32394177193585</v>
+        <v>0.3178947858281764</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3234105665021486</v>
+        <v>0.3053927344268238</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3211360422733609</v>
+        <v>0.2989342772712081</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
         <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3175453529959979</v>
+        <v>0.2982160913974701</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3077287274483319</v>
+        <v>0.2981423969999721</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1872,10 +1872,10 @@
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83">
-        <v>0.2981453677064432</v>
+        <v>0.2898855178262242</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D84" t="s">
         <v>26</v>
       </c>
       <c r="E84">
-        <v>0.2910425158674905</v>
+        <v>0.2767567647016959</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,7 +1900,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
@@ -1909,7 +1909,7 @@
         <v>26</v>
       </c>
       <c r="E85">
-        <v>0.285605925331029</v>
+        <v>0.275564605555744</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,7 +1917,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2855977605627009</v>
+        <v>0.2745185278092999</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,7 +1934,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
@@ -1943,7 +1943,7 @@
         <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2777425687262199</v>
+        <v>0.270498390242647</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
         <v>26</v>
       </c>
       <c r="E88">
-        <v>0.2680835668431477</v>
+        <v>0.2638852855128992</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.2678224012777659</v>
+        <v>0.2592799414130818</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E90">
-        <v>0.2612686259324852</v>
+        <v>0.2589272378506009</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E91">
-        <v>0.2528086896756297</v>
+        <v>0.2572976692322231</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E92">
-        <v>0.2492997721238125</v>
+        <v>0.2513974989311581</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E93">
-        <v>0.249217959868942</v>
+        <v>0.2472447742387925</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,7 +2053,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>20</v>
@@ -2062,7 +2062,7 @@
         <v>26</v>
       </c>
       <c r="E94">
-        <v>0.2490197629660194</v>
+        <v>0.2467487714755146</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E95">
-        <v>0.2479703701524092</v>
+        <v>0.2458445859472208</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96">
-        <v>0.2472447742387925</v>
+        <v>0.244858054061089</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2464078917190672</v>
+        <v>0.2448105459122023</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2440902548104661</v>
+        <v>0.2441794228826352</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
@@ -2147,7 +2147,7 @@
         <v>28</v>
       </c>
       <c r="E99">
-        <v>0.2407247316267939</v>
+        <v>0.242041427607669</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2384878547776739</v>
+        <v>0.2408938185154177</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2175,13 +2175,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2384632600025862</v>
+        <v>0.2356947948361045</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E102">
-        <v>0.2365136303006821</v>
+        <v>0.2351795970291256</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103">
-        <v>0.2354788228599118</v>
+        <v>0.2305208515471381</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104">
-        <v>0.2269190396251123</v>
+        <v>0.23027855959173</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E105">
-        <v>0.2260409634435547</v>
+        <v>0.2287433456553742</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
       </c>
       <c r="E106">
-        <v>0.2248073983171281</v>
+        <v>0.2277657226868274</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,7 +2274,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
@@ -2283,7 +2283,7 @@
         <v>27</v>
       </c>
       <c r="E107">
-        <v>0.2247929168378247</v>
+        <v>0.220839175674251</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E108">
-        <v>0.2239614224160335</v>
+        <v>0.2206837073761874</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>28</v>
       </c>
       <c r="E109">
-        <v>0.2232551175835966</v>
+        <v>0.2154984606389842</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2217705359526113</v>
+        <v>0.21479044270169</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E111">
-        <v>0.2163477866789859</v>
+        <v>0.2122174428987722</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112">
-        <v>0.2149841726566276</v>
+        <v>0.2113734318249406</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.2145408010611505</v>
+        <v>0.2079880548140207</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D114" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E114">
-        <v>0.2132368691015501</v>
+        <v>0.2038668468211767</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2112147276412449</v>
+        <v>0.2030804893241204</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E116">
-        <v>0.2074626087150687</v>
+        <v>0.2024157270581073</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
       </c>
       <c r="E117">
-        <v>0.207261955947724</v>
+        <v>0.2018645407685397</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E118">
-        <v>0.2063578164343556</v>
+        <v>0.2008597549179136</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2025478734167332</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
         <v>18</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2024480612698907</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2020684328882336</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2532,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.1981115044777438</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.1962934616167703</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D124" t="s">
         <v>29</v>
       </c>
       <c r="E124">
-        <v>0.1956137035837647</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.1956137035837647</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,7 +2597,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
         <v>22</v>
@@ -2606,7 +2606,7 @@
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.1956137035837647</v>
+        <v>0.1985740954544531</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E127">
-        <v>0.1956137035837647</v>
+        <v>0.1982859262567936</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128">
-        <v>0.1956137035837647</v>
+        <v>0.1973571919423401</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129">
-        <v>0.1956137035837647</v>
+        <v>0.1946369455235089</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>17</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E130">
-        <v>0.1956137035837647</v>
+        <v>0.1945146201092378</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131">
-        <v>0.1956137035837647</v>
+        <v>0.1941715104140529</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.195583725135387</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E133">
-        <v>0.1937875044519895</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2736,13 +2736,13 @@
         <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E134">
-        <v>0.1934792113114779</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2753,13 +2753,13 @@
         <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.1927797571959357</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2770,13 +2770,13 @@
         <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>0.1887329022791569</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E137">
-        <v>0.188390640575398</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2807,10 +2807,10 @@
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E138">
-        <v>0.1883841434906275</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E139">
-        <v>0.1871377028710177</v>
+        <v>0.1919450620597802</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
         <v>28</v>
       </c>
       <c r="E140">
-        <v>0.1867370866063503</v>
+        <v>0.1908926259395343</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E141">
-        <v>0.1864576978236295</v>
+        <v>0.1901979485918099</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.1864576978236295</v>
+        <v>0.1891822063398748</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E143">
-        <v>0.1864576978236295</v>
+        <v>0.1886056633394795</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144">
-        <v>0.1864576978236295</v>
+        <v>0.1884969606851142</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E145">
-        <v>0.1864576978236295</v>
+        <v>0.1882544833811765</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146">
-        <v>0.1864576978236295</v>
+        <v>0.1872469180140163</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E147">
-        <v>0.1864576978236295</v>
+        <v>0.1868760616505183</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2977,10 +2977,10 @@
         <v>18</v>
       </c>
       <c r="D148" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E148">
-        <v>0.1864576978236295</v>
+        <v>0.1865593369043467</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
@@ -3011,10 +3011,10 @@
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E150">
-        <v>0.1831835751758061</v>
+        <v>0.1845501235941933</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
       </c>
       <c r="E151">
-        <v>0.1809087789191963</v>
+        <v>0.1839580506697815</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.1798703066289406</v>
+        <v>0.183830468405839</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3059,13 +3059,13 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.1795441374435691</v>
+        <v>0.1820530322531792</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
         <v>28</v>
       </c>
       <c r="E154">
-        <v>0.1790584146489695</v>
+        <v>0.1819986505937473</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
       </c>
       <c r="E155">
-        <v>0.1783485244843791</v>
+        <v>0.1754673859289477</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.1772766330782816</v>
+        <v>0.1732721455816055</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
       </c>
       <c r="E157">
-        <v>0.1758680347586216</v>
+        <v>0.173111268414876</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E158">
-        <v>0.1751161724899279</v>
+        <v>0.172241354798567</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E159">
-        <v>0.1732744393131294</v>
+        <v>0.1722074485717134</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160">
-        <v>0.1728729518208802</v>
+        <v>0.1718647920870194</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.1711207766706477</v>
+        <v>0.171721976040331</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,7 +3209,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>21</v>
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="E162">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,7 +3226,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>24</v>
@@ -3235,7 +3235,7 @@
         <v>29</v>
       </c>
       <c r="E163">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,7 +3243,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>25</v>
@@ -3252,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="E164">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
       </c>
       <c r="E165">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,7 +3277,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>20</v>
@@ -3286,7 +3286,7 @@
         <v>29</v>
       </c>
       <c r="E166">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -3303,7 +3303,7 @@
         <v>29</v>
       </c>
       <c r="E167">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,7 +3311,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>19</v>
@@ -3320,7 +3320,7 @@
         <v>29</v>
       </c>
       <c r="E168">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>29</v>
       </c>
       <c r="E169">
-        <v>0.1691510915995442</v>
+        <v>0.1716090688535033</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1687141359467045</v>
+        <v>0.170822065251477</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.168582356474954</v>
+        <v>0.1690887457203274</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,7 +3379,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>21</v>
@@ -3388,7 +3388,7 @@
         <v>28</v>
       </c>
       <c r="E172">
-        <v>0.1683644929199225</v>
+        <v>0.1688807987612964</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3399,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
       </c>
       <c r="E173">
-        <v>0.1682910241663533</v>
+        <v>0.1657445297114321</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3416,13 +3416,13 @@
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
       </c>
       <c r="E174">
-        <v>0.1681467675488675</v>
+        <v>0.1639528775546898</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,7 +3430,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
@@ -3439,7 +3439,7 @@
         <v>27</v>
       </c>
       <c r="E175">
-        <v>0.1660312941859843</v>
+        <v>0.1637163678000074</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E176">
-        <v>0.1658061764717725</v>
+        <v>0.1629156188482324</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D177" t="s">
         <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1634307213090483</v>
+        <v>0.1619024201698253</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E178">
-        <v>0.1617913696553726</v>
+        <v>0.1610974268955932</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1607879050811035</v>
+        <v>0.1605962803763607</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1597254340617326</v>
+        <v>0.1603126610863441</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1591453854841231</v>
+        <v>0.1590746601704055</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3552,13 +3552,13 @@
         <v>15</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1580326387731902</v>
+        <v>0.1588536739487403</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D183" t="s">
         <v>26</v>
       </c>
       <c r="E183">
-        <v>0.1559561666620475</v>
+        <v>0.1573737184645812</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
       </c>
       <c r="E184">
-        <v>0.1558162988665066</v>
+        <v>0.1573332319811917</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.1551720938317654</v>
+        <v>0.1562286734396877</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E186">
-        <v>0.1551305145301555</v>
+        <v>0.1559327376476395</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E187">
-        <v>0.1527037250527285</v>
+        <v>0.1555006762538445</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1514622233802501</v>
+        <v>0.1536917248180014</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3671,13 +3671,13 @@
         <v>15</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1505085910621591</v>
+        <v>0.1534692717037057</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>20</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E190">
-        <v>0.1490928370779724</v>
+        <v>0.1526031671616975</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,7 +3702,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
@@ -3711,7 +3711,7 @@
         <v>27</v>
       </c>
       <c r="E191">
-        <v>0.1480417749926769</v>
+        <v>0.1524957088114431</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E192">
-        <v>0.1462544848254261</v>
+        <v>0.1486423009185734</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s">
         <v>28</v>
       </c>
       <c r="E193">
-        <v>0.1453215155127793</v>
+        <v>0.148115329985289</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E194">
-        <v>0.1431633944796645</v>
+        <v>0.1480078307706211</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E195">
-        <v>0.1410076783291077</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3790,13 +3790,13 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1406608881650288</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.1393102954724421</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.1388619702315481</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.1388083839480204</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E200">
-        <v>0.1387830074283053</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
       </c>
       <c r="E201">
-        <v>0.1381456560659264</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>22</v>
@@ -3898,7 +3898,7 @@
         <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1381456560659264</v>
+        <v>0.1470872550784146</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E203">
-        <v>0.1381456560659264</v>
+        <v>0.1468776147269051</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204">
-        <v>0.1381456560659264</v>
+        <v>0.1422248931373135</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
         <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.1381456560659264</v>
+        <v>0.1420843001005051</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1381456560659264</v>
+        <v>0.1415508769346483</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E207">
-        <v>0.1381456560659264</v>
+        <v>0.1405436069107813</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1381456560659264</v>
+        <v>0.1397227958719545</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E209">
-        <v>0.1380924436010608</v>
+        <v>0.1380317235870827</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E210">
-        <v>0.1374677513858775</v>
+        <v>0.1379278698792491</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D211" t="s">
         <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
         <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
         <v>29</v>
       </c>
       <c r="E213">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D214" t="s">
         <v>29</v>
       </c>
       <c r="E214">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
         <v>29</v>
       </c>
       <c r="E215">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D216" t="s">
         <v>29</v>
       </c>
       <c r="E216">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D217" t="s">
         <v>29</v>
       </c>
       <c r="E217">
-        <v>0.1374677513858775</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D218" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1371021242767702</v>
+        <v>0.1374141278045139</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D219" t="s">
         <v>29</v>
       </c>
       <c r="E219">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D220" t="s">
         <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D221" t="s">
         <v>29</v>
       </c>
       <c r="E221">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
         <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
         <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D224" t="s">
         <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1370825009961369</v>
+        <v>0.1363931642434961</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E227">
-        <v>0.1366183665623512</v>
+        <v>0.1338344610373256</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E228">
-        <v>0.1366155384881398</v>
+        <v>0.1336853122839291</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,7 +4348,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
         <v>21</v>
@@ -4357,7 +4357,7 @@
         <v>28</v>
       </c>
       <c r="E229">
-        <v>0.1362890885077491</v>
+        <v>0.1335060837846006</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.1333607932194562</v>
+        <v>0.1334054343840724</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E231">
-        <v>0.1317204160203351</v>
+        <v>0.1319292169752412</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C232" t="s">
         <v>25</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E232">
-        <v>0.1309775094733956</v>
+        <v>0.1305593792081528</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1307911332466959</v>
+        <v>0.1285567856510431</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E234">
-        <v>0.1307911332466959</v>
+        <v>0.1284643551668895</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C235" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D235" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1307911332466959</v>
+        <v>0.1272367167030727</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D236" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E236">
-        <v>0.1307911332466959</v>
+        <v>0.1263651743708794</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E237">
-        <v>0.1307911332466959</v>
+        <v>0.1258362074910794</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4504,13 +4504,13 @@
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.1307911332466959</v>
+        <v>0.1241906758960161</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E239">
-        <v>0.1307911332466959</v>
+        <v>0.1231080375896719</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
         <v>29</v>
       </c>
       <c r="E240">
-        <v>0.1307911332466959</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C241" t="s">
         <v>21</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E241">
-        <v>0.1307235591034825</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1301570816112793</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4589,13 +4589,13 @@
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1287113990291475</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1283174551533198</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1279980130685214</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E246">
-        <v>0.1277555217822021</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4657,13 +4657,13 @@
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D247" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E247">
-        <v>0.1273610868898145</v>
+        <v>0.1230035532394393</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,7 +4671,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
         <v>18</v>
@@ -4680,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="E248">
-        <v>0.1266906228079684</v>
+        <v>0.1229167126140757</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1265325285352075</v>
+        <v>0.1226124447206354</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E250">
-        <v>0.1257625293457909</v>
+        <v>0.1209657751562212</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
         <v>28</v>
       </c>
       <c r="E251">
-        <v>0.1244121928741337</v>
+        <v>0.1198308905649818</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D252" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E252">
-        <v>0.1234327868035829</v>
+        <v>0.1173138600135722</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C253" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
         <v>28</v>
       </c>
       <c r="E253">
-        <v>0.1223548012171528</v>
+        <v>0.1156939116940972</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1217598191033785</v>
+        <v>0.115629898199039</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
         <v>22</v>
       </c>
       <c r="D255" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E255">
-        <v>0.1213563465628851</v>
+        <v>0.1135252443245694</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D256" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.1213298566926385</v>
+        <v>0.1135199097848634</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
         <v>28</v>
       </c>
       <c r="E257">
-        <v>0.1211222004481334</v>
+        <v>0.1123022191537332</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C258" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E258">
-        <v>0.1207890208036107</v>
+        <v>0.1118625933254862</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E259">
-        <v>0.1206315913502047</v>
+        <v>0.1109524269074427</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4878,13 +4878,13 @@
         <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D260" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E260">
-        <v>0.1206315913502047</v>
+        <v>0.1089925199553378</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
         <v>24</v>
       </c>
       <c r="D261" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E261">
-        <v>0.1206315913502047</v>
+        <v>0.1089872395133695</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4912,13 +4912,13 @@
         <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E262">
-        <v>0.1206315913502047</v>
+        <v>0.1088766021990458</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E263">
-        <v>0.1206315913502047</v>
+        <v>0.1087763308276776</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D264" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E264">
-        <v>0.1206315913502047</v>
+        <v>0.1087574988946621</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D265" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E265">
-        <v>0.1206315913502047</v>
+        <v>0.1084895894326921</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1206315913502047</v>
+        <v>0.1078860970542731</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E267">
-        <v>0.1205089331609564</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C268" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D268" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E268">
-        <v>0.1193436929438738</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D269" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E269">
-        <v>0.1191091916325463</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.1189239038756341</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D271" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1188732350891674</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C272" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D272" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E272">
-        <v>0.1180250712024165</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E273">
-        <v>0.1177250012089288</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C274" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D274" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1173621863527196</v>
+        <v>0.1077014133187946</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E275">
-        <v>0.115603005235031</v>
+        <v>0.1072500536250404</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D276" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E276">
-        <v>0.114051720516201</v>
+        <v>0.106919323608305</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E277">
-        <v>0.114051720516201</v>
+        <v>0.1064154150955942</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C278" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D278" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.114051720516201</v>
+        <v>0.1062512810185765</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D279" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E279">
-        <v>0.114051720516201</v>
+        <v>0.105820691059985</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.114051720516201</v>
+        <v>0.1055160097850249</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C281" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E281">
-        <v>0.114051720516201</v>
+        <v>0.1053600337642881</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C282" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.114051720516201</v>
+        <v>0.1051985766261046</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E283">
-        <v>0.114051720516201</v>
+        <v>0.1050981085562539</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1139737519694227</v>
+        <v>0.1046500011370759</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E285">
-        <v>0.1134595006782229</v>
+        <v>0.1042190978436029</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D286" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E286">
-        <v>0.1133687551311182</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1128749595059554</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5357,10 +5357,10 @@
         <v>23</v>
       </c>
       <c r="D288" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E288">
-        <v>0.1108411788957566</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.1101006867530847</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1100507707231424</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1100507707231424</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D292" t="s">
         <v>29</v>
       </c>
       <c r="E292">
-        <v>0.1100507707231424</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D293" t="s">
         <v>29</v>
       </c>
       <c r="E293">
-        <v>0.1100507707231424</v>
+        <v>0.103988817854328</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C294" t="s">
         <v>23</v>
       </c>
       <c r="D294" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1100507707231424</v>
+        <v>0.103194475460868</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D295" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E295">
-        <v>0.1100507707231424</v>
+        <v>0.1030993340086767</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C296" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E296">
-        <v>0.1100507707231424</v>
+        <v>0.1028972885631038</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1100507707231424</v>
+        <v>0.10199179213121</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
         <v>23</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.108389180294497</v>
+        <v>0.1009070353275662</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E299">
-        <v>0.1074820202840679</v>
+        <v>0.1004990734704924</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D300" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E300">
-        <v>0.1071037752023726</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D301" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E301">
-        <v>0.1065005606603646</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1053800224066816</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E303">
-        <v>0.1052751203067832</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5626,13 +5626,13 @@
         <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1050312640222873</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>21</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1048979759411255</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5660,13 +5660,13 @@
         <v>13</v>
       </c>
       <c r="C306" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D306" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E306">
-        <v>0.104814680616759</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5677,13 +5677,13 @@
         <v>13</v>
       </c>
       <c r="C307" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E307">
-        <v>0.1034931992936901</v>
+        <v>0.09877143512187526</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D308" t="s">
         <v>28</v>
       </c>
       <c r="E308">
-        <v>0.1034028486212167</v>
+        <v>0.09727688965368868</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C309" t="s">
         <v>22</v>
       </c>
       <c r="D309" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.10211177323415</v>
+        <v>0.097228981244715</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,7 +5725,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C310" t="s">
         <v>24</v>
@@ -5734,7 +5734,7 @@
         <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1018734719044719</v>
+        <v>0.09550368288241423</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C311" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D311" t="s">
         <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1013891693850403</v>
+        <v>0.0954390857916913</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
         <v>28</v>
       </c>
       <c r="E312">
-        <v>0.1008605135863266</v>
+        <v>0.09519415272500732</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C313" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1007670703967139</v>
+        <v>0.09508557423884725</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C314" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.1007557278968845</v>
+        <v>0.09494715318339279</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D315" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E315">
-        <v>0.1004667927079304</v>
+        <v>0.09433330951116413</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C316" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E316">
-        <v>0.1001161749614152</v>
+        <v>0.09377425140939336</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D317" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E317">
-        <v>0.09953549790618019</v>
+        <v>0.09329386642279779</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D318" t="s">
         <v>28</v>
       </c>
       <c r="E318">
-        <v>0.09828449200473885</v>
+        <v>0.09201535716743901</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E319">
-        <v>0.0981848661213857</v>
+        <v>0.09103547248622922</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D320" t="s">
         <v>26</v>
       </c>
       <c r="E320">
-        <v>0.09806427936232161</v>
+        <v>0.090947285233411</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.09768652554826145</v>
+        <v>0.09080478438703682</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D322" t="s">
         <v>26</v>
       </c>
       <c r="E322">
-        <v>0.09583217615366717</v>
+        <v>0.09066511252162826</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D323" t="s">
         <v>26</v>
       </c>
       <c r="E323">
-        <v>0.09555219985692441</v>
+        <v>0.09003580543101967</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E324">
-        <v>0.09474177160631135</v>
+        <v>0.08960041644453204</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D325" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E325">
-        <v>0.09330859879820129</v>
+        <v>0.08872792937430592</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -6000,13 +6000,13 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E326">
-        <v>0.09280317045042222</v>
+        <v>0.08820805022653024</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D327" t="s">
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.08901820466009765</v>
+        <v>0.0881803869853946</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,13 +6034,13 @@
         <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D328" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E328">
-        <v>0.08829789773892317</v>
+        <v>0.08816158102513343</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E329">
-        <v>0.08764611465933356</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E330">
-        <v>0.08704186823135783</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D331" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E331">
-        <v>0.08628055859219247</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C332" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D332" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E332">
-        <v>0.08562805843726988</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C333" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D333" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E333">
-        <v>0.08540658873386117</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C334" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D334" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E334">
-        <v>0.08225899587083274</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E335">
-        <v>0.08057919666324737</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E336">
-        <v>0.07972586411587963</v>
+        <v>0.08500466304577692</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.07885368170718714</v>
+        <v>0.08384222368963939</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D338" t="s">
         <v>28</v>
       </c>
       <c r="E338">
-        <v>0.07840220433493589</v>
+        <v>0.08372031083836447</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6221,13 +6221,13 @@
         <v>14</v>
       </c>
       <c r="C339" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E339">
-        <v>0.07812037688908607</v>
+        <v>0.08160307486677358</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D340" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E340">
-        <v>0.07611322406511395</v>
+        <v>0.08022698472635061</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D341" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.07608618162096961</v>
+        <v>0.07971292579895792</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C342" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D342" t="s">
         <v>26</v>
       </c>
       <c r="E342">
-        <v>0.07607253484308869</v>
+        <v>0.07968501957043223</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,7 +6286,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C343" t="s">
         <v>24</v>
@@ -6295,7 +6295,7 @@
         <v>26</v>
       </c>
       <c r="E343">
-        <v>0.0752622023994888</v>
+        <v>0.07849778075080653</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D344" t="s">
         <v>28</v>
       </c>
       <c r="E344">
-        <v>0.07499069179782449</v>
+        <v>0.07789623465132657</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C345" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D345" t="s">
         <v>26</v>
       </c>
       <c r="E345">
-        <v>0.07381120259441398</v>
+        <v>0.07361577016766842</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C346" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D346" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E346">
-        <v>0.07248402260017575</v>
+        <v>0.07334787229569668</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D347" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.07136987758820913</v>
+        <v>0.07333282474591571</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6374,13 +6374,13 @@
         <v>10</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.07136987758820913</v>
+        <v>0.07154427534591661</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D349" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.07136987758820913</v>
+        <v>0.07024273137220258</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D350" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E350">
-        <v>0.07136987758820913</v>
+        <v>0.07016829146705773</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D351" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.07136987758820913</v>
+        <v>0.06922898719991043</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C352" t="s">
         <v>23</v>
       </c>
       <c r="D352" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E352">
-        <v>0.07136987758820913</v>
+        <v>0.06746935886419135</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E353">
-        <v>0.07136987758820913</v>
+        <v>0.06527975813395206</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D354" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E354">
-        <v>0.07136987758820913</v>
+        <v>0.06480075926777049</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C355" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
         <v>26</v>
       </c>
       <c r="E355">
-        <v>0.07085088765378693</v>
+        <v>0.06425402052948195</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D356" t="s">
         <v>26</v>
       </c>
       <c r="E356">
-        <v>0.06910711572387032</v>
+        <v>0.0641283134267186</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C357" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E357">
-        <v>0.06904380593966923</v>
+        <v>0.05983552070236808</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C358" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D358" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E358">
-        <v>0.06618511479453222</v>
+        <v>0.05972602303466271</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D359" t="s">
         <v>26</v>
       </c>
       <c r="E359">
-        <v>0.06539058979567466</v>
+        <v>0.05909775216429587</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
         <v>28</v>
       </c>
       <c r="E360">
-        <v>0.06396946757136575</v>
+        <v>0.05842012698889376</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D361" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E361">
-        <v>0.06269113464796405</v>
+        <v>0.05815217695198605</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,7 +6609,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C362" t="s">
         <v>22</v>
@@ -6618,7 +6618,7 @@
         <v>28</v>
       </c>
       <c r="E362">
-        <v>0.06108989735696404</v>
+        <v>0.05764357066113558</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.06059890134484557</v>
+        <v>0.05753083879317079</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,7 +6643,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C364" t="s">
         <v>18</v>
@@ -6652,7 +6652,7 @@
         <v>29</v>
       </c>
       <c r="E364">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,7 +6660,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C365" t="s">
         <v>19</v>
@@ -6669,7 +6669,7 @@
         <v>29</v>
       </c>
       <c r="E365">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C366" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
         <v>29</v>
       </c>
       <c r="E366">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,7 +6694,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C367" t="s">
         <v>21</v>
@@ -6703,7 +6703,7 @@
         <v>29</v>
       </c>
       <c r="E367">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C368" t="s">
         <v>24</v>
@@ -6720,7 +6720,7 @@
         <v>29</v>
       </c>
       <c r="E368">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,7 +6728,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C369" t="s">
         <v>25</v>
@@ -6737,7 +6737,7 @@
         <v>29</v>
       </c>
       <c r="E369">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C370" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D370" t="s">
         <v>29</v>
       </c>
       <c r="E370">
-        <v>0.06059890134484557</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C371" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D371" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E371">
-        <v>0.05801441173127776</v>
+        <v>0.05391659494398005</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D372" t="s">
         <v>28</v>
       </c>
       <c r="E372">
-        <v>0.05777536636646104</v>
+        <v>0.05321710436212172</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C373" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D373" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E373">
-        <v>0.05662024757001019</v>
+        <v>0.05257785769382089</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D374" t="s">
         <v>26</v>
       </c>
       <c r="E374">
-        <v>0.05598075964483525</v>
+        <v>0.05112019116689595</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.05521882271020065</v>
+        <v>0.04833350597950354</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C376" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D376" t="s">
         <v>26</v>
       </c>
       <c r="E376">
-        <v>0.05437768374082397</v>
+        <v>0.04830196570283524</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D377" t="s">
         <v>26</v>
       </c>
       <c r="E377">
-        <v>0.0531582987747443</v>
+        <v>0.04827931872240589</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D378" t="s">
         <v>28</v>
       </c>
       <c r="E378">
-        <v>0.05157817991090177</v>
+        <v>0.04704713859094782</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C379" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D379" t="s">
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.05113073688202577</v>
+        <v>0.04447003694147739</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
         <v>26</v>
       </c>
       <c r="E380">
-        <v>0.05082037808177139</v>
+        <v>0.04329019432583953</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E381">
-        <v>0.04748413286698482</v>
+        <v>0.04045037035712088</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,7 +6949,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
         <v>24</v>
@@ -6958,7 +6958,7 @@
         <v>26</v>
       </c>
       <c r="E382">
-        <v>0.04295526617937744</v>
+        <v>0.03585292613522611</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C383" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
         <v>26</v>
       </c>
       <c r="E383">
-        <v>0.04145943518333267</v>
+        <v>0.03473551471907081</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6983,16 +6983,16 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E384">
-        <v>0.03833033606562034</v>
+        <v>0.03388033862569298</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.03315949233388822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,16 +7017,16 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D386" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E386">
-        <v>0.02534590392328817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C387" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7071,7 +7071,7 @@
         <v>14</v>
       </c>
       <c r="C389" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C393" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,10 +7170,10 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D395" t="s">
         <v>27</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C396" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>21</v>
@@ -7221,7 +7221,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C398" t="s">
         <v>25</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C399" t="s">
         <v>25</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C400" t="s">
         <v>21</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C402" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C403" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,7 +7323,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C404" t="s">
         <v>25</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C405" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,10 +7357,10 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C406" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
         <v>27</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C408" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,7 +7408,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C409" t="s">
         <v>21</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,10 +7442,10 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C411" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D411" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C412" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C413" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C414" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C415" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C416" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C417" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
